--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223053.5355985092</v>
+        <v>97168.37986301917</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5755009.36719442</v>
+        <v>5347258.299724136</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22627141.25136952</v>
+        <v>22245540.83401187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3941659.648374903</v>
+        <v>4102673.826996088</v>
       </c>
     </row>
     <row r="11">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="25">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
     </row>
     <row r="27">
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>34.95810984817399</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>36.13746967538605</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>69.73798302460185</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>40.20652398783097</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>40.20652398783097</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>36.13746967538604</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>69.73798302460183</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>34.95810984817399</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.715192997916454</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>36.13746967538607</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>69.73798302460186</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>34.95810984817399</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>36.13746967538604</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>69.73798302460183</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>40.20652398783097</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>40.20652398783097</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>40.20652398783097</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>73.80703733704675</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>107.4075506862625</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>36.13746967538605</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>69.73798302460185</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>40.20652398783097</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>73.80703733704675</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>107.4075506862625</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.715192997916454</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>36.13746967538607</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>69.73798302460186</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>34.95810984817399</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>36.13746967538605</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>69.73798302460185</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>69.91621969634801</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>34.95810984817399</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>32.91143027777488</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>36.13746967538605</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>69.73798302460185</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
   </sheetData>
@@ -9646,16 +9646,16 @@
         <v>221.1666787354324</v>
       </c>
       <c r="M23" t="n">
-        <v>214.1012135983212</v>
+        <v>246.6698164773692</v>
       </c>
       <c r="N23" t="n">
-        <v>212.9051825663978</v>
+        <v>246.8450950403532</v>
       </c>
       <c r="O23" t="n">
-        <v>214.5102874732696</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P23" t="n">
-        <v>217.9290633046618</v>
+        <v>251.8689757786172</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9728,16 +9728,16 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N24" t="n">
-        <v>118.4674613291454</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O24" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P24" t="n">
-        <v>124.5219861368073</v>
+        <v>157.0905890158553</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,19 +9801,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>132.4205420186164</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N25" t="n">
-        <v>121.3349826493852</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O25" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9880,16 +9880,16 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L26" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M26" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9051825663978</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O26" t="n">
-        <v>214.5102874732696</v>
+        <v>247.0788903523176</v>
       </c>
       <c r="P26" t="n">
         <v>217.9290633046618</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L27" t="n">
-        <v>127.8064787429921</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M27" t="n">
         <v>129.5917403577182</v>
       </c>
       <c r="N27" t="n">
-        <v>118.4674613291454</v>
+        <v>147.1059453792048</v>
       </c>
       <c r="O27" t="n">
         <v>130.8188201934042</v>
       </c>
       <c r="P27" t="n">
-        <v>124.5219861368073</v>
+        <v>158.4618986107626</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10038,19 +10038,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>132.4205420186164</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N28" t="n">
-        <v>121.3349826493852</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O28" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10117,16 +10117,16 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L29" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M29" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9051825663978</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O29" t="n">
-        <v>214.5102874732696</v>
+        <v>247.0788903523176</v>
       </c>
       <c r="P29" t="n">
         <v>217.9290633046618</v>
@@ -10196,16 +10196,16 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L30" t="n">
-        <v>127.8064787429921</v>
+        <v>160.3750816220401</v>
       </c>
       <c r="M30" t="n">
-        <v>129.5917403577182</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N30" t="n">
-        <v>118.4674613291454</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O30" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P30" t="n">
         <v>124.5219861368073</v>
@@ -10275,19 +10275,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>132.4205420186164</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N31" t="n">
-        <v>121.3349826493852</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O31" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10354,16 +10354,16 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L32" t="n">
-        <v>221.1666787354324</v>
+        <v>253.7352816144805</v>
       </c>
       <c r="M32" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9051825663978</v>
+        <v>246.8450950403532</v>
       </c>
       <c r="O32" t="n">
-        <v>214.5102874732696</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P32" t="n">
         <v>217.9290633046618</v>
@@ -10430,10 +10430,10 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K33" t="n">
-        <v>129.8481964236088</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L33" t="n">
-        <v>127.8064787429921</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M33" t="n">
         <v>129.5917403577182</v>
@@ -10445,10 +10445,10 @@
         <v>130.8188201934042</v>
       </c>
       <c r="P33" t="n">
-        <v>124.5219861368073</v>
+        <v>157.0905890158553</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,19 +10512,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>132.4205420186164</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N34" t="n">
-        <v>121.3349826493852</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O34" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L35" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M35" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N35" t="n">
-        <v>212.9051825663978</v>
+        <v>245.4737854454458</v>
       </c>
       <c r="O35" t="n">
         <v>214.5102874732696</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>129.8481964236088</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L36" t="n">
         <v>127.8064787429921</v>
@@ -10676,13 +10676,13 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N36" t="n">
-        <v>118.4674613291454</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O36" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P36" t="n">
-        <v>124.5219861368073</v>
+        <v>153.1604701868667</v>
       </c>
       <c r="Q36" t="n">
         <v>133.663080786811</v>
@@ -10749,19 +10749,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>132.4205420186164</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N37" t="n">
-        <v>121.3349826493852</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O37" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10825,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L38" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M38" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N38" t="n">
-        <v>212.9051825663978</v>
+        <v>245.4737854454458</v>
       </c>
       <c r="O38" t="n">
         <v>214.5102874732696</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>129.8481964236088</v>
@@ -10910,16 +10910,16 @@
         <v>127.8064787429921</v>
       </c>
       <c r="M39" t="n">
-        <v>129.5917403577182</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N39" t="n">
-        <v>118.4674613291454</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O39" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P39" t="n">
-        <v>124.5219861368073</v>
+        <v>153.1604701868667</v>
       </c>
       <c r="Q39" t="n">
         <v>133.663080786811</v>
@@ -10986,19 +10986,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>132.4205420186164</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N40" t="n">
-        <v>121.3349826493852</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O40" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L41" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M41" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N41" t="n">
-        <v>212.9051825663978</v>
+        <v>245.4737854454458</v>
       </c>
       <c r="O41" t="n">
         <v>214.5102874732696</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>129.8481964236088</v>
@@ -11147,16 +11147,16 @@
         <v>127.8064787429921</v>
       </c>
       <c r="M42" t="n">
-        <v>129.5917403577182</v>
+        <v>158.2302244077775</v>
       </c>
       <c r="N42" t="n">
-        <v>118.4674613291454</v>
+        <v>152.4073738031007</v>
       </c>
       <c r="O42" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P42" t="n">
-        <v>124.5219861368073</v>
+        <v>158.4618986107626</v>
       </c>
       <c r="Q42" t="n">
         <v>133.663080786811</v>
@@ -11223,19 +11223,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>128.7148261097669</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>132.4205420186164</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N43" t="n">
-        <v>121.3349826493852</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O43" t="n">
-        <v>132.590766746692</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>202.1809638361346</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L44" t="n">
-        <v>213.5488567752802</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M44" t="n">
-        <v>205.6249188705004</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N44" t="n">
-        <v>204.2917325281876</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O44" t="n">
-        <v>206.3768508508745</v>
+        <v>247.0788903523176</v>
       </c>
       <c r="P44" t="n">
-        <v>210.9873633211545</v>
+        <v>251.8689757786172</v>
       </c>
       <c r="Q44" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>119.7207117878867</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K45" t="n">
-        <v>125.6774978810001</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L45" t="n">
-        <v>122.1984598562864</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M45" t="n">
-        <v>123.047446830095</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N45" t="n">
-        <v>111.7499598249992</v>
+        <v>151.0360642081934</v>
       </c>
       <c r="O45" t="n">
-        <v>124.673618687554</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P45" t="n">
-        <v>119.5899201578276</v>
+        <v>158.4618986107626</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3661252938572</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,19 +11460,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>125.4955336943436</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>129.0262495446562</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N46" t="n">
-        <v>118.0213988638391</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O46" t="n">
-        <v>129.5301358016631</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>320.7431291467276</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24259,7 +24259,7 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T23" t="n">
-        <v>222.6908602868995</v>
+        <v>188.7509478129442</v>
       </c>
       <c r="U23" t="n">
         <v>251.3382516189322</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>315.3010562434577</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>356.3436637489937</v>
       </c>
     </row>
     <row r="24">
@@ -24335,7 +24335,7 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S24" t="n">
-        <v>170.7637213332854</v>
+        <v>140.8694464262256</v>
       </c>
       <c r="T24" t="n">
         <v>199.9652070090748</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>217.7550706869643</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>171.8330727295221</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>171.742783303349</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9494798159088</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H25" t="n">
         <v>161.8582038473137</v>
@@ -24411,10 +24411,10 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R25" t="n">
-        <v>175.4274210366964</v>
+        <v>141.487508562741</v>
       </c>
       <c r="S25" t="n">
-        <v>223.2933741908973</v>
+        <v>193.3990992838374</v>
       </c>
       <c r="T25" t="n">
         <v>227.7682732010226</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6447408781395</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>348.7939291895252</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>347.9904575983064</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>372.9361332677561</v>
       </c>
       <c r="G26" t="n">
         <v>415.2102214038314</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>356.3436637489937</v>
       </c>
     </row>
     <row r="27">
@@ -24575,16 +24575,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T27" t="n">
-        <v>199.9652070090748</v>
+        <v>170.070932102015</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9381254702172</v>
+        <v>191.9982129962619</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>198.8606746754699</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>217.7550706869643</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.6870224659892</v>
+        <v>48.74710999203386</v>
       </c>
       <c r="R28" t="n">
-        <v>175.4274210366964</v>
+        <v>141.487508562741</v>
       </c>
       <c r="S28" t="n">
-        <v>223.2933741908973</v>
+        <v>189.3534617169419</v>
       </c>
       <c r="T28" t="n">
         <v>227.7682732010226</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>256.6287234295311</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>348.7939291895252</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>376.9817708346516</v>
       </c>
       <c r="G29" t="n">
-        <v>415.2102214038314</v>
+        <v>381.270308929876</v>
       </c>
       <c r="H29" t="n">
         <v>338.5273214908784</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>352.2980261820982</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>136.6389087428075</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24812,16 +24812,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T30" t="n">
-        <v>199.9652070090748</v>
+        <v>166.0252945351195</v>
       </c>
       <c r="U30" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>198.8606746754699</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>217.7550706869643</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9494798159088</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H31" t="n">
         <v>161.8582038473137</v>
@@ -24888,13 +24888,13 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S31" t="n">
-        <v>223.2933741908973</v>
+        <v>189.3534617169419</v>
       </c>
       <c r="T31" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3167657450791</v>
+        <v>256.4224908380192</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>347.9904575983064</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>376.9817708346516</v>
       </c>
       <c r="G32" t="n">
         <v>415.2102214038314</v>
@@ -24970,10 +24970,10 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T32" t="n">
-        <v>222.6908602868995</v>
+        <v>188.7509478129442</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3382516189322</v>
+        <v>217.3983391449769</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25049,16 +25049,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T33" t="n">
-        <v>199.9652070090748</v>
+        <v>170.070932102015</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9381254702172</v>
+        <v>191.9982129962619</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>198.8606746754699</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>217.7550706869643</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>145.892067707982</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9494798159088</v>
+        <v>138.0552049088489</v>
       </c>
       <c r="H34" t="n">
         <v>161.8582038473137</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>252.5830858626357</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6447408781395</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.2102214038314</v>
+        <v>385.3159464967715</v>
       </c>
       <c r="H35" t="n">
         <v>338.5273214908784</v>
@@ -25204,13 +25204,13 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S35" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6908602868995</v>
+        <v>188.7509478129442</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3382516189322</v>
+        <v>217.3983391449769</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25253,7 +25253,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I36" t="n">
-        <v>87.69233988828964</v>
+        <v>57.79806498122978</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>97.08446202703757</v>
+        <v>63.14454955308224</v>
       </c>
       <c r="S36" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T36" t="n">
-        <v>199.9652070090748</v>
+        <v>166.0252945351195</v>
       </c>
       <c r="U36" t="n">
         <v>225.9381254702172</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>171.742783303349</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9494798159088</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H37" t="n">
         <v>161.8582038473137</v>
@@ -25365,13 +25365,13 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T37" t="n">
-        <v>227.7682732010226</v>
+        <v>193.8283607270673</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3167657450791</v>
+        <v>252.3768532711237</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>222.2433684167681</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>348.7939291895252</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>376.9817708346516</v>
       </c>
       <c r="G38" t="n">
-        <v>415.2102214038314</v>
+        <v>381.270308929876</v>
       </c>
       <c r="H38" t="n">
         <v>338.5273214908784</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>335.7911882045137</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.2940166796957</v>
+        <v>103.3541042057403</v>
       </c>
       <c r="H39" t="n">
-        <v>111.757373777286</v>
+        <v>77.81746130333065</v>
       </c>
       <c r="I39" t="n">
-        <v>87.69233988828964</v>
+        <v>53.7524274143343</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S39" t="n">
-        <v>170.7637213332854</v>
+        <v>140.8694464262256</v>
       </c>
       <c r="T39" t="n">
         <v>199.9652070090748</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>145.892067707982</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>116.5396877395093</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4811355489759</v>
       </c>
       <c r="G40" t="n">
         <v>167.9494798159088</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>252.5830858626357</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.2102214038314</v>
+        <v>385.3159464967715</v>
       </c>
       <c r="H41" t="n">
         <v>338.5273214908784</v>
@@ -25651,7 +25651,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J41" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>144.0576027644702</v>
+        <v>110.1176902905148</v>
       </c>
       <c r="S41" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T41" t="n">
-        <v>222.6908602868995</v>
+        <v>188.7509478129442</v>
       </c>
       <c r="U41" t="n">
         <v>251.3382516189322</v>
@@ -25724,10 +25724,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H42" t="n">
-        <v>111.757373777286</v>
+        <v>77.81746130333065</v>
       </c>
       <c r="I42" t="n">
-        <v>87.69233988828964</v>
+        <v>53.7524274143343</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S42" t="n">
-        <v>170.7637213332854</v>
+        <v>136.8238088593301</v>
       </c>
       <c r="T42" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9381254702172</v>
+        <v>196.0438505631574</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9494798159088</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H43" t="n">
         <v>161.8582038473137</v>
@@ -25836,7 +25836,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S43" t="n">
-        <v>223.2933741908973</v>
+        <v>193.3990992838374</v>
       </c>
       <c r="T43" t="n">
         <v>227.7682732010226</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>252.5830858626357</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6447408781395</v>
       </c>
     </row>
     <row r="44">
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>376.9817708346516</v>
       </c>
       <c r="G44" t="n">
-        <v>415.1619485273195</v>
+        <v>381.270308929876</v>
       </c>
       <c r="H44" t="n">
-        <v>338.0329468943008</v>
+        <v>304.587409016923</v>
       </c>
       <c r="I44" t="n">
-        <v>205.0481221176458</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.0252816852793</v>
+        <v>110.1176902905148</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8118405263978</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4795457699687</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25955,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>115.174937486324</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2681884137393</v>
+        <v>103.3541042057403</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5079271034444</v>
+        <v>77.81746130333065</v>
       </c>
       <c r="I45" t="n">
-        <v>86.80307722268739</v>
+        <v>53.7524274143343</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>95.48084390037957</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S45" t="n">
-        <v>170.2839726213331</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T45" t="n">
-        <v>199.8611009721718</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26034,22 +26034,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4811355489759</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9278262653587</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6656840978772</v>
+        <v>131.9639289402538</v>
       </c>
       <c r="I46" t="n">
-        <v>153.551289182031</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J46" t="n">
-        <v>88.89425643449839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K46" t="n">
-        <v>14.93225064571201</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.87383288310646</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R46" t="n">
-        <v>174.4537986637794</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S46" t="n">
-        <v>222.9160118599466</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T46" t="n">
-        <v>227.6757534850358</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>252.5830858626357</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>341572.1226066865</v>
+        <v>371918.32752431</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>341572.1226066865</v>
+        <v>371918.3275243099</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>341572.1226066865</v>
+        <v>371918.3275243099</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>341572.1226066865</v>
+        <v>371918.3275243098</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>341572.1226066865</v>
+        <v>371918.3275243099</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>341572.1226066865</v>
+        <v>371918.32752431</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341572.1226066865</v>
+        <v>371918.3275243098</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342364.4600055786</v>
+        <v>371918.3275243099</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="D2" t="n">
         <v>69879.81359544014</v>
       </c>
       <c r="E2" t="n">
-        <v>70918.35331670483</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="F2" t="n">
-        <v>70918.35331670483</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="G2" t="n">
-        <v>70918.35331670484</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="H2" t="n">
-        <v>70918.35331670484</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="I2" t="n">
-        <v>70918.35331670482</v>
+        <v>77168.18320171238</v>
       </c>
       <c r="J2" t="n">
-        <v>70918.35331670484</v>
+        <v>77168.18320171238</v>
       </c>
       <c r="K2" t="n">
-        <v>70918.35331670484</v>
+        <v>77168.1832017124</v>
       </c>
       <c r="L2" t="n">
-        <v>70918.35331670484</v>
+        <v>77168.18320171238</v>
       </c>
       <c r="M2" t="n">
-        <v>70918.35331670484</v>
+        <v>77168.1832017124</v>
       </c>
       <c r="N2" t="n">
-        <v>70918.35331670486</v>
+        <v>77168.18320171238</v>
       </c>
       <c r="O2" t="n">
-        <v>70918.35331670483</v>
+        <v>77168.1832017124</v>
       </c>
       <c r="P2" t="n">
-        <v>71308.9381402673</v>
+        <v>77168.18320171238</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9025.335464986678</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7992.15542925007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26438,28 +26438,28 @@
         <v>30622.41960267296</v>
       </c>
       <c r="I4" t="n">
-        <v>30622.41960267296</v>
+        <v>33594.95530178888</v>
       </c>
       <c r="J4" t="n">
-        <v>30622.41960267296</v>
+        <v>33594.95530178888</v>
       </c>
       <c r="K4" t="n">
-        <v>30622.41960267296</v>
+        <v>33594.95530178888</v>
       </c>
       <c r="L4" t="n">
-        <v>30622.41960267296</v>
+        <v>33594.95530178888</v>
       </c>
       <c r="M4" t="n">
-        <v>30622.41960267296</v>
+        <v>33594.95530178888</v>
       </c>
       <c r="N4" t="n">
-        <v>30622.41960267296</v>
+        <v>33594.95530178888</v>
       </c>
       <c r="O4" t="n">
-        <v>30622.41960267296</v>
+        <v>33594.95530178888</v>
       </c>
       <c r="P4" t="n">
-        <v>29702.19277517567</v>
+        <v>33594.95530178888</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>501.6917425720072</v>
       </c>
       <c r="I5" t="n">
-        <v>501.6917425720072</v>
+        <v>2565.238420988492</v>
       </c>
       <c r="J5" t="n">
-        <v>501.6917425720072</v>
+        <v>2565.238420988492</v>
       </c>
       <c r="K5" t="n">
-        <v>501.6917425720072</v>
+        <v>2565.238420988492</v>
       </c>
       <c r="L5" t="n">
-        <v>501.6917425720072</v>
+        <v>2565.238420988492</v>
       </c>
       <c r="M5" t="n">
-        <v>501.6917425720072</v>
+        <v>2565.238420988492</v>
       </c>
       <c r="N5" t="n">
-        <v>501.6917425720072</v>
+        <v>2565.238420988492</v>
       </c>
       <c r="O5" t="n">
-        <v>501.6917425720072</v>
+        <v>2565.238420988492</v>
       </c>
       <c r="P5" t="n">
-        <v>763.4634836769322</v>
+        <v>2565.238420988492</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006249</v>
+        <v>-11150.68203402854</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006249</v>
+        <v>-11150.68203402854</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006219</v>
+        <v>-11150.68203402854</v>
       </c>
       <c r="E6" t="n">
-        <v>21305.22128074526</v>
+        <v>6234.434981577033</v>
       </c>
       <c r="F6" t="n">
-        <v>39794.24197145986</v>
+        <v>24723.45567229163</v>
       </c>
       <c r="G6" t="n">
-        <v>39794.24197145987</v>
+        <v>24723.45567229163</v>
       </c>
       <c r="H6" t="n">
-        <v>39794.24197145987</v>
+        <v>24723.45567229163</v>
       </c>
       <c r="I6" t="n">
-        <v>39794.24197145984</v>
+        <v>17392.62385978066</v>
       </c>
       <c r="J6" t="n">
-        <v>39794.24197145987</v>
+        <v>26417.95932476733</v>
       </c>
       <c r="K6" t="n">
-        <v>39794.24197145987</v>
+        <v>26417.95932476735</v>
       </c>
       <c r="L6" t="n">
-        <v>39794.24197145987</v>
+        <v>26417.95932476734</v>
       </c>
       <c r="M6" t="n">
-        <v>39794.24197145987</v>
+        <v>26417.95932476735</v>
       </c>
       <c r="N6" t="n">
-        <v>39794.24197145989</v>
+        <v>26417.95932476734</v>
       </c>
       <c r="O6" t="n">
-        <v>39794.24197145986</v>
+        <v>26417.95932476735</v>
       </c>
       <c r="P6" t="n">
-        <v>32851.12645216462</v>
+        <v>26417.95932476734</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="P3" t="n">
-        <v>35.02126071912533</v>
+        <v>23.01338268678932</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.00787803233601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.09251611130367558</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9474806248887679</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I41" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J41" t="n">
-        <v>7.852189301760344</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L41" t="n">
         <v>14.5997362345548</v>
@@ -34155,10 +34155,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>5.811515176679516</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S41" t="n">
-        <v>2.108210886332509</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T41" t="n">
         <v>0.4049892772318401</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0495004835149808</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H42" t="n">
         <v>0.4780704592104726</v>
@@ -34210,7 +34210,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J42" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K42" t="n">
         <v>7.993242550750212</v>
@@ -34228,7 +34228,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P42" t="n">
-        <v>9.452421277522957</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q42" t="n">
         <v>6.318693299210532</v>
@@ -34301,7 +34301,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N43" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O43" t="n">
         <v>5.865771705150827</v>
@@ -34319,7 +34319,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U43" t="n">
         <v>0.002263611411815345</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H44" t="n">
-        <v>1.4418552214663</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I44" t="n">
-        <v>5.427767452760119</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K44" t="n">
-        <v>17.90888720884599</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L44" t="n">
-        <v>22.21755819470702</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M44" t="n">
-        <v>24.72131435677232</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N44" t="n">
-        <v>25.12133106840334</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O44" t="n">
-        <v>23.72136057081217</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P44" t="n">
-        <v>20.24563243411506</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.20362680796963</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>8.843836255870379</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S44" t="n">
-        <v>3.208229059847512</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I45" t="n">
-        <v>2.593555628727678</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J45" t="n">
-        <v>7.11691487877999</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K45" t="n">
-        <v>12.16394109335884</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L45" t="n">
-        <v>16.35591992358773</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M45" t="n">
-        <v>19.0865870919233</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N45" t="n">
-        <v>19.59175225833409</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O45" t="n">
-        <v>17.92262575689049</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P45" t="n">
-        <v>14.38448725650263</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.615648792164375</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R45" t="n">
-        <v>4.676990252263569</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S45" t="n">
-        <v>1.399198482504676</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I46" t="n">
-        <v>1.899185745227322</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J46" t="n">
-        <v>4.464923682174388</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K46" t="n">
-        <v>7.337241180170845</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L46" t="n">
-        <v>9.389142586894684</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M46" t="n">
-        <v>9.899534402948818</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N46" t="n">
-        <v>9.664145601394049</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O46" t="n">
-        <v>8.926402650179686</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P46" t="n">
-        <v>7.638079550938413</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.288210368587925</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R46" t="n">
-        <v>2.839592713390063</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S46" t="n">
-        <v>1.100586177025627</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>28.6384840500594</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>33.93991247395537</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>30.45089961919053</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>28.63848405005941</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>28.63848405005941</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>28.6384840500594</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97168.37986301917</v>
+        <v>210376.9153380567</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5347258.299724136</v>
+        <v>5739672.253402798</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22245540.83401187</v>
+        <v>22630145.75001232</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4102673.826996088</v>
+        <v>3941202.093269855</v>
       </c>
     </row>
     <row r="11">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>29.89427490705986</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>34.95810984817399</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>36.13746967538605</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>69.73798302460185</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>103.5167330455638</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>40.20652398783097</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>40.20652398783097</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>36.13746967538604</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>69.73798302460183</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>103.5167330455638</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>34.95810984817399</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.715192997916454</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>36.13746967538607</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>69.73798302460186</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>34.95810984817399</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>36.13746967538604</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>69.73798302460183</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>103.5167330455638</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20652398783097</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>40.20652398783097</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>40.20652398783097</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>73.80703733704675</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>107.4075506862625</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>36.13746967538605</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>69.73798302460185</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>103.5167330455638</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>40.20652398783097</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>73.80703733704675</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>107.4075506862625</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.715192997916454</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>36.13746967538607</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>69.73798302460186</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>103.5167330455638</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>6.606010638615182</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>34.95810984817399</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>36.13746967538605</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>69.73798302460185</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>36.31570634713221</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>69.91621969634801</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>105.5634126159629</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>71.28067274328075</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>36.99793287059859</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>34.95810984817399</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>68.55862319738978</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.1591365466056</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>67.19417015045704</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>32.91143027777488</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.715192997916427</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>36.13746967538605</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>69.73798302460185</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>103.3384963738176</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>133.4848869968162</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>135.7596498958214</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>101.4769100231392</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9646,16 +9646,16 @@
         <v>221.1666787354324</v>
       </c>
       <c r="M23" t="n">
-        <v>246.6698164773692</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N23" t="n">
-        <v>246.8450950403532</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O23" t="n">
-        <v>248.4501999472249</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P23" t="n">
-        <v>251.8689757786172</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9728,16 +9728,16 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N24" t="n">
-        <v>152.4073738031007</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O24" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P24" t="n">
-        <v>157.0905890158553</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,19 +9801,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M25" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9880,16 +9880,16 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L26" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M26" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N26" t="n">
-        <v>246.8450950403531</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O26" t="n">
-        <v>247.0788903523176</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P26" t="n">
         <v>217.9290633046618</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K27" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L27" t="n">
-        <v>161.7463912169474</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M27" t="n">
         <v>129.5917403577182</v>
       </c>
       <c r="N27" t="n">
-        <v>147.1059453792048</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O27" t="n">
         <v>130.8188201934042</v>
       </c>
       <c r="P27" t="n">
-        <v>158.4618986107626</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10038,19 +10038,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M28" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10117,16 +10117,16 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L29" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M29" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N29" t="n">
-        <v>246.8450950403531</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O29" t="n">
-        <v>247.0788903523176</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P29" t="n">
         <v>217.9290633046618</v>
@@ -10196,16 +10196,16 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L30" t="n">
-        <v>160.3750816220401</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M30" t="n">
-        <v>163.5316528316735</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N30" t="n">
-        <v>152.4073738031007</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O30" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P30" t="n">
         <v>124.5219861368073</v>
@@ -10275,19 +10275,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M31" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10354,16 +10354,16 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L32" t="n">
-        <v>253.7352816144805</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M32" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N32" t="n">
-        <v>246.8450950403532</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O32" t="n">
-        <v>248.4501999472249</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P32" t="n">
         <v>217.9290633046618</v>
@@ -10430,10 +10430,10 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K33" t="n">
-        <v>163.7881088975641</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L33" t="n">
-        <v>161.7463912169474</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M33" t="n">
         <v>129.5917403577182</v>
@@ -10445,10 +10445,10 @@
         <v>130.8188201934042</v>
       </c>
       <c r="P33" t="n">
-        <v>157.0905890158553</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,19 +10512,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M34" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>242.2613672256909</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L35" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M35" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N35" t="n">
-        <v>245.4737854454458</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O35" t="n">
         <v>214.5102874732696</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K36" t="n">
-        <v>163.7881088975641</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L36" t="n">
         <v>127.8064787429921</v>
@@ -10676,13 +10676,13 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N36" t="n">
-        <v>152.4073738031007</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O36" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P36" t="n">
-        <v>153.1604701868667</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q36" t="n">
         <v>133.663080786811</v>
@@ -10749,19 +10749,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M37" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10825,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>242.2613672256909</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L38" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M38" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N38" t="n">
-        <v>245.4737854454458</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O38" t="n">
         <v>214.5102874732696</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K39" t="n">
         <v>129.8481964236088</v>
@@ -10910,16 +10910,16 @@
         <v>127.8064787429921</v>
       </c>
       <c r="M39" t="n">
-        <v>163.5316528316735</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N39" t="n">
-        <v>152.4073738031007</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O39" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P39" t="n">
-        <v>153.1604701868667</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q39" t="n">
         <v>133.663080786811</v>
@@ -10986,19 +10986,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M40" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>242.2613672256909</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L41" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M41" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N41" t="n">
-        <v>245.4737854454458</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O41" t="n">
         <v>214.5102874732696</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K42" t="n">
         <v>129.8481964236088</v>
@@ -11147,16 +11147,16 @@
         <v>127.8064787429921</v>
       </c>
       <c r="M42" t="n">
-        <v>158.2302244077775</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N42" t="n">
-        <v>152.4073738031007</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O42" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P42" t="n">
-        <v>158.4618986107626</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q42" t="n">
         <v>133.663080786811</v>
@@ -11223,19 +11223,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M43" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N43" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>242.2613672256909</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L44" t="n">
-        <v>255.1065912093878</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M44" t="n">
         <v>214.1012135983212</v>
@@ -11311,10 +11311,10 @@
         <v>212.9051825663978</v>
       </c>
       <c r="O44" t="n">
-        <v>247.0788903523176</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P44" t="n">
-        <v>251.8689757786172</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11387,16 +11387,16 @@
         <v>129.5917403577182</v>
       </c>
       <c r="N45" t="n">
-        <v>151.0360642081934</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O45" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P45" t="n">
-        <v>158.4618986107626</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,19 +11460,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M46" t="n">
-        <v>166.3604544925717</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2748951233406</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>320.7431291467276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24259,7 +24259,7 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T23" t="n">
-        <v>188.7509478129442</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U23" t="n">
         <v>251.3382516189322</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>315.3010562434577</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>356.3436637489937</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24335,7 +24335,7 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S24" t="n">
-        <v>140.8694464262256</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T24" t="n">
         <v>199.9652070090748</v>
@@ -24347,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>217.7550706869643</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>171.8330727295221</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>171.742783303349</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0095673419535</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H25" t="n">
         <v>161.8582038473137</v>
@@ -24411,10 +24411,10 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R25" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3990992838374</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T25" t="n">
         <v>227.7682732010226</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.6447408781395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.7939291895252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>347.9904575983064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>372.9361332677561</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.2102214038314</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>356.3436637489937</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24575,16 +24575,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T27" t="n">
-        <v>170.070932102015</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U27" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V27" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>217.7550706869643</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.74710999203386</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R28" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S28" t="n">
-        <v>189.3534617169419</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T28" t="n">
         <v>227.7682732010226</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>256.6287234295311</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.7939291895252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>376.9817708346516</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>381.270308929876</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H29" t="n">
         <v>338.5273214908784</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>352.2980261820982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>136.6389087428075</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24812,16 +24812,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T30" t="n">
-        <v>166.0252945351195</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U30" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V30" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>217.7550706869643</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0095673419535</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H31" t="n">
         <v>161.8582038473137</v>
@@ -24888,13 +24888,13 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S31" t="n">
-        <v>189.3534617169419</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T31" t="n">
-        <v>193.8283607270673</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U31" t="n">
-        <v>256.4224908380192</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>347.9904575983064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>376.9817708346516</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.2102214038314</v>
@@ -24970,10 +24970,10 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T32" t="n">
-        <v>188.7509478129442</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U32" t="n">
-        <v>217.3983391449769</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25049,16 +25049,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T33" t="n">
-        <v>170.070932102015</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U33" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V33" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>217.7550706869643</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.892067707982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.0552049088489</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H34" t="n">
         <v>161.8582038473137</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>252.5830858626357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.6447408781395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>385.3159464967715</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H35" t="n">
         <v>338.5273214908784</v>
@@ -25204,13 +25204,13 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S35" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T35" t="n">
-        <v>188.7509478129442</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U35" t="n">
-        <v>217.3983391449769</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25253,7 +25253,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I36" t="n">
-        <v>57.79806498122978</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>63.14454955308224</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S36" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T36" t="n">
-        <v>166.0252945351195</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U36" t="n">
         <v>225.9381254702172</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>171.742783303349</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0095673419535</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H37" t="n">
         <v>161.8582038473137</v>
@@ -25365,13 +25365,13 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T37" t="n">
-        <v>193.8283607270673</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U37" t="n">
-        <v>252.3768532711237</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V37" t="n">
-        <v>222.2433684167681</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>348.7939291895252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>376.9817708346516</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>381.270308929876</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H38" t="n">
         <v>338.5273214908784</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>335.7911882045137</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>103.3541042057403</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H39" t="n">
-        <v>77.81746130333065</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I39" t="n">
-        <v>53.7524274143343</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S39" t="n">
-        <v>140.8694464262256</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T39" t="n">
         <v>199.9652070090748</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.892067707982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>116.5396877395093</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>111.4811355489759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9494798159088</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>252.5830858626357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>385.3159464967715</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H41" t="n">
         <v>338.5273214908784</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>110.1176902905148</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S41" t="n">
-        <v>172.9719462259575</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T41" t="n">
-        <v>188.7509478129442</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U41" t="n">
         <v>251.3382516189322</v>
@@ -25724,10 +25724,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H42" t="n">
-        <v>77.81746130333065</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I42" t="n">
-        <v>53.7524274143343</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S42" t="n">
-        <v>136.8238088593301</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T42" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U42" t="n">
-        <v>196.0438505631574</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0095673419535</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H43" t="n">
         <v>161.8582038473137</v>
@@ -25836,7 +25836,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S43" t="n">
-        <v>193.3990992838374</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T43" t="n">
         <v>227.7682732010226</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>252.5830858626357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.6447408781395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>376.9817708346516</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>381.270308929876</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H44" t="n">
-        <v>304.587409016923</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I44" t="n">
         <v>206.909162189371</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.1176902905148</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S44" t="n">
         <v>206.9118586999128</v>
@@ -25955,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>115.174937486324</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>103.3541042057403</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H45" t="n">
-        <v>77.81746130333065</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I45" t="n">
-        <v>53.7524274143343</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>111.4811355489759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0095673419535</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H46" t="n">
-        <v>131.9639289402538</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I46" t="n">
         <v>154.2024705022108</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>252.5830858626357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>371918.32752431</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>371918.3275243099</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>371918.3275243099</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>371918.3275243098</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>371918.3275243099</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>371918.32752431</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>371918.3275243098</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>371918.3275243099</v>
+        <v>341572.1226066865</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544015</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E2" t="n">
         <v>70918.35331670486</v>
@@ -26334,28 +26334,28 @@
         <v>70918.35331670486</v>
       </c>
       <c r="I2" t="n">
-        <v>77168.18320171238</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="J2" t="n">
-        <v>77168.18320171238</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="K2" t="n">
-        <v>77168.1832017124</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="L2" t="n">
-        <v>77168.18320171238</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="M2" t="n">
-        <v>77168.1832017124</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="N2" t="n">
-        <v>77168.18320171238</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="O2" t="n">
-        <v>77168.1832017124</v>
+        <v>70918.35331670486</v>
       </c>
       <c r="P2" t="n">
-        <v>77168.18320171238</v>
+        <v>70918.35331670486</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9025.335464986678</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>30622.41960267296</v>
       </c>
       <c r="I4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
       <c r="J4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
       <c r="K4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
       <c r="L4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
       <c r="M4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
       <c r="N4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
       <c r="O4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
       <c r="P4" t="n">
-        <v>33594.95530178888</v>
+        <v>30622.41960267296</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>501.6917425720072</v>
       </c>
       <c r="I5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
       <c r="J5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
       <c r="K5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
       <c r="L5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
       <c r="M5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
       <c r="N5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
       <c r="O5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
       <c r="P5" t="n">
-        <v>2565.238420988492</v>
+        <v>501.6917425720072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11150.68203402854</v>
+        <v>2484.924539002772</v>
       </c>
       <c r="C6" t="n">
-        <v>-11150.68203402854</v>
+        <v>2484.924539002758</v>
       </c>
       <c r="D6" t="n">
-        <v>-11150.68203402854</v>
+        <v>2484.924539002772</v>
       </c>
       <c r="E6" t="n">
-        <v>6234.434981577033</v>
+        <v>19798.14265082846</v>
       </c>
       <c r="F6" t="n">
-        <v>24723.45567229163</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="G6" t="n">
-        <v>24723.45567229163</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="H6" t="n">
-        <v>24723.45567229163</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="I6" t="n">
-        <v>17392.62385978066</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="J6" t="n">
-        <v>26417.95932476733</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="K6" t="n">
-        <v>26417.95932476735</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="L6" t="n">
-        <v>26417.95932476734</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="M6" t="n">
-        <v>26417.95932476735</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="N6" t="n">
-        <v>26417.95932476734</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="O6" t="n">
-        <v>26417.95932476735</v>
+        <v>38287.16334154306</v>
       </c>
       <c r="P6" t="n">
-        <v>26417.95932476734</v>
+        <v>38287.16334154306</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>28.6384840500594</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>33.93991247395537</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,19 +37232,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>30.45089961919053</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>28.63848405005941</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>28.63848405005941</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>28.6384840500594</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>33.75987543178749</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>33.93991247395534</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>30.4508996191905</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
